--- a/sh/goods_msg.xlsx
+++ b/sh/goods_msg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\Project\CafeManagement\sh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FA9FB1-484F-4DAB-8D01-1BF195679F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E302018E-49F1-4915-81D1-8421FBB771E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -180,9 +180,6 @@
     <t>Chocolate Milk Tea</t>
   </si>
   <si>
-    <t>巧克力脏脏奶茶.jpg</t>
-  </si>
-  <si>
     <t>Black Tea</t>
   </si>
   <si>
@@ -257,6 +254,10 @@
   </si>
   <si>
     <t>热</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巧克力脏脏茶.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -634,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="181" zoomScaleNormal="181" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="181" zoomScaleNormal="181" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -653,10 +654,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1121,8 +1122,8 @@
       <c r="E24">
         <v>16</v>
       </c>
-      <c r="F24" t="s">
-        <v>51</v>
+      <c r="F24" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1130,7 +1131,7 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1142,7 +1143,7 @@
         <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1150,7 +1151,7 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1162,7 +1163,7 @@
         <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1170,7 +1171,7 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1182,7 +1183,7 @@
         <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1190,7 +1191,7 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1202,7 +1203,7 @@
         <v>6</v>
       </c>
       <c r="F28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1210,7 +1211,7 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1222,7 +1223,7 @@
         <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1230,7 +1231,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1242,7 +1243,7 @@
         <v>15</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1250,7 +1251,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1262,15 +1263,15 @@
         <v>14</v>
       </c>
       <c r="F31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
         <v>66</v>
-      </c>
-      <c r="B32" t="s">
-        <v>67</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1282,15 +1283,15 @@
         <v>15</v>
       </c>
       <c r="F32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1302,15 +1303,15 @@
         <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1322,15 +1323,15 @@
         <v>15</v>
       </c>
       <c r="F34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1342,7 +1343,7 @@
         <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
